--- a/dataFile.xlsx
+++ b/dataFile.xlsx
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
